--- a/Excel workplan.xlsx
+++ b/Excel workplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S1\CZ2006\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S1\CZ2006\Project_GitHub\TeamNugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12212D3-5274-48F3-AD96-7ECC1DA603B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284876C8-7AEC-4F97-9AEA-A255E48AA5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EEBB826D-426D-45D7-B67A-475D8D46EA92}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>S/N</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Design Model</t>
+  </si>
+  <si>
+    <t>Course Descriptions</t>
+  </si>
+  <si>
+    <t>Course description for Uni, ITE, Poly</t>
   </si>
 </sst>
 </file>
@@ -173,9 +179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5F3F0C-0540-4B2A-A332-C48F830998DD}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +508,7 @@
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -665,7 +672,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -679,52 +686,68 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Excel workplan.xlsx
+++ b/Excel workplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S1\CZ2006\Project_GitHub\TeamNugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284876C8-7AEC-4F97-9AEA-A255E48AA5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA452EBE-BABA-4723-BC95-23607A8CEB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EEBB826D-426D-45D7-B67A-475D8D46EA92}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>S/N</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Class Diagram</t>
   </si>
   <si>
-    <t>Update Methods</t>
-  </si>
-  <si>
     <t>COMPLETED?</t>
   </si>
   <si>
@@ -136,6 +133,45 @@
   </si>
   <si>
     <t>Course description for Uni, ITE, Poly</t>
+  </si>
+  <si>
+    <t>Update Methods, Add Boundary and Control Classes</t>
+  </si>
+  <si>
+    <t>Add multiplicity</t>
+  </si>
+  <si>
+    <t>Test Case (Manual Testing)</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Video Walkthrough (5-7 min)</t>
+  </si>
+  <si>
+    <t>Design Process Powerpoint</t>
+  </si>
+  <si>
+    <t>Stakeholder</t>
+  </si>
+  <si>
+    <t>Zixing</t>
+  </si>
+  <si>
+    <t>Fab</t>
+  </si>
+  <si>
+    <t>Zixing/Terrence</t>
+  </si>
+  <si>
+    <t>Terrence</t>
+  </si>
+  <si>
+    <t>Fabian</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -497,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5F3F0C-0540-4B2A-A332-C48F830998DD}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,16 +544,17 @@
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -526,229 +563,312 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>28</v>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Excel workplan.xlsx
+++ b/Excel workplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S1\CZ2006\Project_GitHub\TeamNugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA452EBE-BABA-4723-BC95-23607A8CEB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E150444-AA6A-4719-AD7B-C2F7FCC97579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EEBB826D-426D-45D7-B67A-475D8D46EA92}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel workplan.xlsx
+++ b/Excel workplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S1\CZ2006\Project_GitHub\TeamNugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E150444-AA6A-4719-AD7B-C2F7FCC97579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58C606-BF33-47C4-BD67-0A2C18919DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EEBB826D-426D-45D7-B67A-475D8D46EA92}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>S/N</t>
   </si>
@@ -168,10 +168,16 @@
     <t>Terrence</t>
   </si>
   <si>
-    <t>Fabian</t>
-  </si>
-  <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Format Course Info Desc</t>
+  </si>
+  <si>
+    <t>ISSUE FACED</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
   </si>
 </sst>
 </file>
@@ -195,15 +201,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,14 +229,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5F3F0C-0540-4B2A-A332-C48F830998DD}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,329 +583,415 @@
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="F19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel workplan.xlsx
+++ b/Excel workplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\Y2S1\CZ2006\Project_GitHub\TeamNugget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CZ2006\Teamnugget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB58C606-BF33-47C4-BD67-0A2C18919DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F1A182-9B63-48E2-8296-93D29D78F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{EEBB826D-426D-45D7-B67A-475D8D46EA92}"/>
+    <workbookView xWindow="10968" yWindow="2724" windowWidth="21180" windowHeight="9240" xr2:uid="{EEBB826D-426D-45D7-B67A-475D8D46EA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>S/N</t>
   </si>
@@ -572,21 +572,21 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -724,7 +724,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -740,10 +740,12 @@
       <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -759,10 +761,12 @@
       <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -778,10 +782,12 @@
       <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -797,10 +803,12 @@
       <c r="E12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -819,7 +827,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -838,7 +846,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -857,7 +865,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -874,7 +882,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -891,7 +899,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -910,7 +918,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -931,7 +939,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -948,7 +956,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -963,7 +971,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -978,7 +986,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>22</v>
       </c>

--- a/Excel workplan.xlsx
+++ b/Excel workplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CZ2006\Teamnugget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terre\Administrator\Desktop\CZ2006\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F1A182-9B63-48E2-8296-93D29D78F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F51448-90FF-4C65-96CC-FCFD25DDF12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10968" yWindow="2724" windowWidth="21180" windowHeight="9240" xr2:uid="{EEBB826D-426D-45D7-B67A-475D8D46EA92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EEBB826D-426D-45D7-B67A-475D8D46EA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>S/N</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>unable to get some data but in general those with data are working</t>
   </si>
 </sst>
 </file>
@@ -571,22 +574,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5F3F0C-0540-4B2A-A332-C48F830998DD}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
     <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -626,7 +629,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -641,7 +644,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -656,7 +659,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -673,7 +676,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -688,7 +691,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -703,7 +706,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -724,7 +727,7 @@
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -745,7 +748,7 @@
       </c>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -766,7 +769,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -787,7 +790,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -808,7 +811,7 @@
       </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -824,10 +827,14 @@
       <c r="E13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -846,7 +853,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -865,7 +872,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -879,10 +886,14 @@
       <c r="E16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -899,7 +910,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -918,7 +929,7 @@
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -939,7 +950,7 @@
       </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -956,7 +967,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -971,7 +982,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -986,7 +997,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>22</v>
       </c>
